--- a/Energy Consumption34.xlsx
+++ b/Energy Consumption34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.968481737609966</v>
+        <v>4.633760690483867</v>
       </c>
       <c r="C2" t="n">
-        <v>2.017860466308271</v>
+        <v>0.9157948689166304</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.383995148011188</v>
+        <v>5.099333848387586</v>
       </c>
       <c r="C3" t="n">
-        <v>4.095538114151739</v>
+        <v>1.810025689074652</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.37354769721976</v>
+        <v>5.194255551181947</v>
       </c>
       <c r="C4" t="n">
-        <v>6.197123025805414</v>
+        <v>2.841746928840663</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.475550236471457</v>
+        <v>9.760021383178435</v>
       </c>
       <c r="C5" t="n">
-        <v>8.426383867986349</v>
+        <v>3.833084125498456</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.619961021526612</v>
+        <v>14.12308159874659</v>
       </c>
       <c r="C6" t="n">
-        <v>10.70192919619551</v>
+        <v>4.754056727903757</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.493150635764279</v>
+        <v>16.52380481384802</v>
       </c>
       <c r="C7" t="n">
-        <v>13.69344260439611</v>
+        <v>5.821134536603146</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.36049248877029</v>
+        <v>16.82933328193898</v>
       </c>
       <c r="C8" t="n">
-        <v>15.62531929736096</v>
+        <v>6.823351705313178</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.36893250810997</v>
+        <v>20.03966007549048</v>
       </c>
       <c r="C9" t="n">
-        <v>17.98657145365885</v>
+        <v>7.928030773264516</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.14090233782277</v>
+        <v>23.72023758006711</v>
       </c>
       <c r="C10" t="n">
-        <v>20.20840465985457</v>
+        <v>9.536905490795473</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.97168569666456</v>
+        <v>33.61922367188829</v>
       </c>
       <c r="C11" t="n">
-        <v>22.44462264323762</v>
+        <v>10.43877629938486</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.62154333908414</v>
+        <v>37.47745075236205</v>
       </c>
       <c r="C12" t="n">
-        <v>24.63983080002975</v>
+        <v>11.35100749197012</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4237819050132</v>
+        <v>37.55693407908596</v>
       </c>
       <c r="C13" t="n">
-        <v>26.95394791600389</v>
+        <v>12.3259755717076</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.79098149594827</v>
+        <v>37.83548351054211</v>
       </c>
       <c r="C14" t="n">
-        <v>29.51914186205623</v>
+        <v>13.64655386399941</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.15352176212264</v>
+        <v>40.89463314041754</v>
       </c>
       <c r="C15" t="n">
-        <v>31.7691973635588</v>
+        <v>14.51753660139681</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.96643051998518</v>
+        <v>42.26911647374695</v>
       </c>
       <c r="C16" t="n">
-        <v>34.16309949401447</v>
+        <v>15.68379542862329</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.76995198188084</v>
+        <v>43.51841339956567</v>
       </c>
       <c r="C17" t="n">
-        <v>36.37865007079032</v>
+        <v>16.54065194121847</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.12187092355322</v>
+        <v>45.74305845682478</v>
       </c>
       <c r="C18" t="n">
-        <v>38.71010913170011</v>
+        <v>17.75134382239723</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31.97799937777928</v>
+        <v>48.48031580598457</v>
       </c>
       <c r="C19" t="n">
-        <v>41.46375028524894</v>
+        <v>18.62451020148014</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>33.36174543159331</v>
+        <v>48.70006017335604</v>
       </c>
       <c r="C20" t="n">
-        <v>43.79534832942595</v>
+        <v>19.63965975641869</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36.0582010502947</v>
+        <v>50.72028802835469</v>
       </c>
       <c r="C21" t="n">
-        <v>46.35093425374557</v>
+        <v>20.68283995594952</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>37.56413624586817</v>
+        <v>53.15185544257069</v>
       </c>
       <c r="C22" t="n">
-        <v>48.54106608829696</v>
+        <v>21.57835024785508</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.72953626335999</v>
+        <v>53.43996451828138</v>
       </c>
       <c r="C23" t="n">
-        <v>50.59879319354879</v>
+        <v>22.53708503187125</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43.76257286152876</v>
+        <v>53.51230141012838</v>
       </c>
       <c r="C24" t="n">
-        <v>52.88335883679755</v>
+        <v>23.50006041030797</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.37404992303079</v>
+        <v>63.01920475955566</v>
       </c>
       <c r="C25" t="n">
-        <v>55.06282165674089</v>
+        <v>24.47509269906413</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47.5932224604942</v>
+        <v>63.08717969310466</v>
       </c>
       <c r="C26" t="n">
-        <v>57.3670039745301</v>
+        <v>25.47784677251192</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.18226709341175</v>
+        <v>63.64371229842498</v>
       </c>
       <c r="C27" t="n">
-        <v>59.40308331538117</v>
+        <v>26.37499013797765</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48.68192042381027</v>
+        <v>64.47967849202442</v>
       </c>
       <c r="C28" t="n">
-        <v>62.08389475820508</v>
+        <v>27.46880624219978</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>50.22824911514581</v>
+        <v>68.12542564799607</v>
       </c>
       <c r="C29" t="n">
-        <v>64.67110599342078</v>
+        <v>28.39416604254507</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>53.54934408256511</v>
+        <v>68.2153168382511</v>
       </c>
       <c r="C30" t="n">
-        <v>67.02483633812919</v>
+        <v>29.4573819646596</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56.69881644061518</v>
+        <v>69.16480061400163</v>
       </c>
       <c r="C31" t="n">
-        <v>69.83915716824085</v>
+        <v>30.74857370857071</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57.49076443176097</v>
+        <v>69.72143464578903</v>
       </c>
       <c r="C32" t="n">
-        <v>72.09240074268058</v>
+        <v>31.59851834108667</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>58.54960929747739</v>
+        <v>74.07273048436051</v>
       </c>
       <c r="C33" t="n">
-        <v>74.8096236084798</v>
+        <v>32.47609756478946</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>60.13220890590935</v>
+        <v>76.76810005691152</v>
       </c>
       <c r="C34" t="n">
-        <v>77.44838404976471</v>
+        <v>33.42884756270491</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.32758398594804</v>
+        <v>78.00203709683637</v>
       </c>
       <c r="C35" t="n">
-        <v>79.79587669892973</v>
+        <v>34.33068062681019</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>64.49308311638407</v>
+        <v>78.3469708474522</v>
       </c>
       <c r="C36" t="n">
-        <v>82.15062903765346</v>
+        <v>35.31542525016336</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>64.86036977960455</v>
+        <v>81.61692436282384</v>
       </c>
       <c r="C37" t="n">
-        <v>84.53784559065339</v>
+        <v>36.34145238766495</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.76432125355871</v>
+        <v>85.87418795504234</v>
       </c>
       <c r="C38" t="n">
-        <v>86.90003444763497</v>
+        <v>37.40668144375827</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.52522990753032</v>
+        <v>87.46854372792866</v>
       </c>
       <c r="C39" t="n">
-        <v>89.45787772486253</v>
+        <v>38.35944274176383</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>75.82851242872491</v>
+        <v>87.54137630355916</v>
       </c>
       <c r="C40" t="n">
-        <v>92.23817717984247</v>
+        <v>39.45126764029932</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>80.75786203583439</v>
+        <v>89.45817422194929</v>
       </c>
       <c r="C41" t="n">
-        <v>94.60362919923384</v>
+        <v>40.53636155876845</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>81.51347506899496</v>
+        <v>90.07811632152834</v>
       </c>
       <c r="C42" t="n">
-        <v>97.16715747679493</v>
+        <v>41.49976361373444</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.54819607892824</v>
+        <v>93.57312516855718</v>
       </c>
       <c r="C43" t="n">
-        <v>99.38693530096234</v>
+        <v>43.05420825428281</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.63643345090561</v>
+        <v>95.45341764459619</v>
       </c>
       <c r="C44" t="n">
-        <v>101.6988566154365</v>
+        <v>44.00258206439221</v>
       </c>
     </row>
     <row r="45">
@@ -923,54 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92.71487056913008</v>
+        <v>97.01825787982882</v>
       </c>
       <c r="C45" t="n">
-        <v>104.0178346277546</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>95.3793994524906</v>
-      </c>
-      <c r="C46" t="n">
-        <v>106.9692842711775</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>95.75962580197567</v>
-      </c>
-      <c r="C47" t="n">
-        <v>109.2324669909013</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>97.32162326695752</v>
-      </c>
-      <c r="C48" t="n">
-        <v>111.3068733106977</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>98.69364886621428</v>
-      </c>
-      <c r="C49" t="n">
-        <v>113.3780079966014</v>
+        <v>45.05893695464815</v>
       </c>
     </row>
   </sheetData>
